--- a/Lab1.3/Lab-1.3-Requirements Stakeholder Traceability.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Stakeholder Traceability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FShop\Desktop\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9B992-417A-43FE-8863-337AEE35B677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA31AA10-9C9C-4AF8-8596-8C85C0567DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t>Đăng nhập</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Doctor</t>
   </si>
   <si>
-    <t>Cơ quan truyền thông</t>
-  </si>
-  <si>
     <t>Nhà cung cấp</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t>Requirement</t>
   </si>
   <si>
-    <t>Requirement ID</t>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -221,12 +218,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -236,15 +248,21 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{016603DC-DE64-4C70-921D-3C20CE6A4E2B}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -557,30 +575,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="56" zoomScaleNormal="100" zoomScalePageLayoutView="56" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -600,545 +617,649 @@
       <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="12" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lab1.3/Lab-1.3-Requirements Stakeholder Traceability.xlsx
+++ b/Lab1.3/Lab-1.3-Requirements Stakeholder Traceability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FShop\Desktop\SE357-Pratice-class\Lab1.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giaba\OneDrive\Documents\GitHub\SE357-Pratice-class\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA31AA10-9C9C-4AF8-8596-8C85C0567DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB03859D-C6B3-4C8E-96AE-8A53B4D26D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{26FFCE25-151A-40F0-9F51-80939D4665D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>Đăng nhập</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Quản lí lịch làm việc nhân viên</t>
   </si>
   <si>
-    <t>Theo dõi doanh thu, chi phí</t>
-  </si>
-  <si>
     <t>Lập báo cáo tài chính</t>
   </si>
   <si>
@@ -80,21 +77,12 @@
     <t>CRUD đơn thuốc</t>
   </si>
   <si>
-    <t>Lưu trữ hồ sơ bệnh án</t>
-  </si>
-  <si>
     <t>In hồ sơ bệnh án</t>
   </si>
   <si>
-    <t>Theo dõi tình trạng thiết bị</t>
-  </si>
-  <si>
     <t>Lập kế hoạch bảo dưỡng thiết bị</t>
   </si>
   <si>
-    <t>CRUD quảng cáo</t>
-  </si>
-  <si>
     <t>CRUD voucher</t>
   </si>
   <si>
@@ -107,18 +95,6 @@
     <t>Theo dõi tiến độ kế hoạch điều trị</t>
   </si>
   <si>
-    <t>CRUD hợp đồng dịch vụ</t>
-  </si>
-  <si>
-    <t>CRUD hợp đồng cung cấp vật tư</t>
-  </si>
-  <si>
-    <t>Mã hóa dữ liệu</t>
-  </si>
-  <si>
-    <t>CRUD khách hàng tiềm năng (doanh nghiệp)</t>
-  </si>
-  <si>
     <t>CRUD  thông tin phòng khám</t>
   </si>
   <si>
@@ -162,9 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">CRUD lịch hẹn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xuất hóa đơn </t>
   </si>
   <si>
     <t>Requirement</t>
@@ -177,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +161,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -244,9 +211,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -254,15 +221,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{016603DC-DE64-4C70-921D-3C20CE6A4E2B}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -279,7 +243,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -575,50 +539,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8854E2F-0770-4487-8904-2AC368AD1999}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="56" zoomScaleNormal="100" zoomScalePageLayoutView="56" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -626,23 +590,23 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -650,612 +614,442 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
